--- a/Sprint#5/pruebas individuales Ivan/Log_pruebas_individuales_RF-46.xlsx
+++ b/Sprint#5/pruebas individuales Ivan/Log_pruebas_individuales_RF-46.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B6C105-A8B4-43A6-97D3-5805A505C8A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="RF 34" sheetId="1" r:id="rId1"/>
+    <sheet name="RF 46" sheetId="1" r:id="rId1"/>
     <sheet name="Datos de prueba" sheetId="3" r:id="rId2"/>
     <sheet name="Firmas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,26 +27,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -53,12 +45,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{485F004D-E8DD-4052-87B9-E2CCCFA6E202}">
       <text>
         <r>
           <rPr>
@@ -73,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{6B3CC0E4-D09F-4631-B4BB-8FBC5EA36A17}">
       <text>
         <r>
           <rPr>
@@ -88,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{C4901C9E-EE35-4528-9E0B-BFC4ADF71922}">
       <text>
         <r>
           <rPr>
@@ -103,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{7F9AB4C8-F32B-4DB5-8F1C-589660E2F2A6}">
       <text>
         <r>
           <rPr>
@@ -130,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{5CAEA901-8DD8-44C8-A61E-E15ED772BCEB}">
       <text>
         <r>
           <rPr>
@@ -150,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{E4563219-876D-48C0-88AC-3841D1DB2801}">
       <text>
         <r>
           <rPr>
@@ -168,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{1943D1AA-C192-47D5-AD03-20E1611BC67A}">
       <text>
         <r>
           <rPr>
@@ -193,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0" shapeId="0" xr:uid="{5BBC12FA-7FE9-4AF0-86B3-5FB442108991}">
       <text>
         <r>
           <rPr>
@@ -208,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{D12C8082-F26E-4782-824F-180931EDCBCB}">
       <text>
         <r>
           <rPr>
@@ -228,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
   <si>
     <t>Observación</t>
   </si>
@@ -267,6 +259,9 @@
   </si>
   <si>
     <t>Sí cumple</t>
+  </si>
+  <si>
+    <t>Jenny Ulate Montero</t>
   </si>
   <si>
     <t xml:space="preserve">Sistema de información para la gestión administrativa,
@@ -275,22 +270,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Una consulta sobre el porcentaje de participación del personal (del año en curso) en las diferentes actividades según el tipo.
-Una consulta sobre el porcentaje de participación del personal (del año en curso) en las diferentes actividades según el ámbito (Nacional o Internacional).</t>
-  </si>
-  <si>
-    <t>Realizar la consulta de información de participación de un personal en específico. Para dicha consulta se seguirán los siguientes parámetros:
-Cédula del personal. 
-Rango de fechas. 
-Estado de la actividad.</t>
-  </si>
-  <si>
-    <t>Los gráficos generados por dicha consulta serán los siguientes: 
-Participación en diferentes actividades por tipos. En el gráfico se mostrarán los tipos de actividades y el número de actividades en las que participó en ese rango de fechas y con el estado seleccionado. Este gráfico será de tipo “Gráfico de Dona”. 
-Cantidad de participación por fechas. En el eje “X” se mostrarán los meses y en eje “Y” el número de actividades en las que participó. Este gráfico será de tipo “Gráfico de Área”. 
-Participación en actividades por ámbito. En el eje “X” se mostrarán los siguientes valores: “Internacional”, “Nacional”, y en el eje “Y” se mostrarán el número de actividades en las que participó en ese rango de fechas y con el estado seleccionado. Este gráfico será de tipo “Gráfico de Barras”.</t>
   </si>
   <si>
     <t>Se encuentra en las hoja de datos de prueba</t>
@@ -737,14 +716,307 @@
     <t>Reporte anual del involucramiento del personal</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
+    <t xml:space="preserve">Debe ser posible generar una tabla a través de un rango de años que cuente con el nombre del personal y con la Cantidad de participaciones en actividades según los siguientes tipos: 
+ Órgano colegiado 
+Participación en comisiones 
+Tutorías, lectorías y tribunal de prueba de grado 
+Capacitación </t>
+  </si>
+  <si>
+    <t>La tabla debe contar con un total y un porcentaje según la cantidad de personal que participaron en ese tipo de actividad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El resultado de la búsqueda debe asemejarse lo más posible a la tabla mostrada en el anexo 3. </t>
+  </si>
+  <si>
+    <t>El resultado de la búsqueda se debe poder descargar por medio de un documento pdf que siga el formato del anexo 1.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Proposito de la actividad (capacitación, actualización, inducción. Involucramiento del personal, otro (s))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de actividad </t>
+  </si>
+  <si>
+    <t>Lugar donde se llevó a cabo la actividad</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Certificación de la actividad (participación o aprovechamiento)</t>
+  </si>
+  <si>
+    <t>Tema de la actividad</t>
+  </si>
+  <si>
+    <t>Responsable de coordinar actividad</t>
+  </si>
+  <si>
+    <t>Responsable de la actividad</t>
+  </si>
+  <si>
+    <t>Estado de la actividad (En ejecución, En progreso, Ejecutada)</t>
+  </si>
+  <si>
+    <t>Objetivos de la actividad</t>
+  </si>
+  <si>
+    <t>Agenda (Temas a tratar)</t>
+  </si>
+  <si>
+    <t>Ámbito (internacional o nacional)</t>
+  </si>
+  <si>
+    <t>Descripción de la actividad</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Público dirigido (estudiantes regulares, graduados, docentes, administrativos)</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Actividad Co-Curricular</t>
+  </si>
+  <si>
+    <t>Sesión sincrónica mediante Zoom</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <r>
+      <t>No aplica</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Estudio de la realidad nacional</t>
+  </si>
+  <si>
+    <t>Kattia Bermúdez León</t>
+  </si>
+  <si>
+    <t>Ejecutada</t>
+  </si>
+  <si>
+    <t>Concientizar a los estudiantes para que reflexionen acerca de temas como el aborto terapéutico, niños, alcoholismo y discriminación social y cultural</t>
+  </si>
+  <si>
+    <t>Saludo y bienvenida; Instrucciones para participar de la actividad: Entrega de protocolo para participar en foro en el aula virtual; Espacio para preguntas y comentarios; Cierre</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Los estudiantes abordaron temas tales como: aborto terapéutico, niñez, las cárceles, el alcoholismo discriminación social y cultural. A partir de estos temas se logra una toma de conciencia entre la comunidad estudiantil y la necesidad de contribuir desde la bibliotecología. Participación de 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Computadora; conexión a Internet; plataforma Zoom; Lecturas; Aula virtual institucional</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares del curso Introducción a la Bibliotecología y Gestión de la Información (I ciclo 2019)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No aplica </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Inducción</t>
+  </si>
+  <si>
+    <t>Facultad de Filosofía y Letras</t>
+  </si>
+  <si>
+    <t>Proceso de inducción a estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Juan Pablo Corella Parajales</t>
+  </si>
+  <si>
+    <t>Estudiantes de primer ingreso</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>07 y 09 de setiembre de 2020</t>
+  </si>
+  <si>
+    <t>6 horas</t>
+  </si>
+  <si>
+    <t>Curso/taller sobre Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Karla Rodríguez Salas</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez</t>
+  </si>
+  <si>
+    <t>Tareas; Chat; Llamadas; Equipos</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Microsoft Teams; conexión a internet</t>
+  </si>
+  <si>
+    <t>Personal docente de la EBDI</t>
+  </si>
+  <si>
+    <t>19, 25 y 26 de febrero de 2021</t>
+  </si>
+  <si>
+    <t>10 horas</t>
+  </si>
+  <si>
+    <t>Taller: uso de herramientas tecnológicas para la docencia</t>
+  </si>
+  <si>
+    <t>Magally Campos Méndez
+Freddy Oviedo</t>
+  </si>
+  <si>
+    <t>Herramientas del aula virtual (Asistencia, Grupos, Wiki, Glosario, lección, taller, cuestionario, insertar audio y url)
+Google calendar y Sharepoint</t>
+  </si>
+  <si>
+    <t>02 de setiembre</t>
+  </si>
+  <si>
+    <t>3 horas</t>
+  </si>
+  <si>
+    <t>Curso Classroom para docentes</t>
+  </si>
+  <si>
+    <t>Contribuir al formatalecimiento de las competencias académicas con respecto al manejo de herramientas para mediar pedagogicamente con las TIC</t>
+  </si>
+  <si>
+    <t>Google Classroom</t>
+  </si>
+  <si>
+    <t>Capacitación al personal docente de la EBDI. Participación de 10 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; instructivo; computadora; plataforma Zoom; conexión a internet</t>
+  </si>
+  <si>
+    <t>Curso/taller</t>
+  </si>
+  <si>
+    <t>Aula tecnológiga (Facultad de Filosofía y Letras)</t>
+  </si>
+  <si>
+    <t>30 de setiembre y 01 de octubre</t>
+  </si>
+  <si>
+    <t>16 horas</t>
+  </si>
+  <si>
+    <t>Escritura académica con énfasis en artículos científicos</t>
+  </si>
+  <si>
+    <t>Johann Pirela Morillo</t>
+  </si>
+  <si>
+    <t>Módulo 1: Aspectos introducctorios
+Módulo 2: Sistemas de citación y elementos para evaluar artículos científicos</t>
+  </si>
+  <si>
+    <t>Capacitación de dos días al personal docente de la EBDI. Participación de 11 docentes.</t>
+  </si>
+  <si>
+    <t>Invitación; Presentaciones PowerPoint; computadora; conexión a internet; proyección multimedia</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>17 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Capacitación sobre las bases de datos del SIDUNA, el OPAC, libros y revistas electrónicos y el repositorio institucional</t>
+  </si>
+  <si>
+    <t>Pedro Bustabad</t>
+  </si>
+  <si>
+    <t>Jorlenny Valerio</t>
+  </si>
+  <si>
+    <t>Cumplir con la directriz institucional para el uso de los recursos del SIDUNA y fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Curso/taller a estudiantes regulares, egresados y graduados de la EBDI. Participación 25 estudiantes</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares, egresados y graduados</t>
+  </si>
+  <si>
+    <t>16 y 18 de abril de 2018</t>
+  </si>
+  <si>
+    <t>Charla sobre el Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Giannina Ocampo Bermúdez
+Lucrecia Barboza Jiménez</t>
+  </si>
+  <si>
+    <t>Centro Regional de Información sobre Desastres para América Latina y el Caribe (CRID)</t>
+  </si>
+  <si>
+    <t>Fortalecer las habilidades del estudiantado.</t>
+  </si>
+  <si>
+    <t>Estudiantes regulares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,8 +1106,28 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,8 +1164,14 @@
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -896,12 +1194,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,10 +1308,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BC52AFE1-0A12-440D-95ED-3DFD3AD6CBC2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1023,55 +1351,170 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>630758</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692E729B-8D33-4E52-BC54-C55C172FC58C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11715750" cy="8648700"/>
+          <a:ext cx="15108758" cy="2934109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>630758</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FF496D-0405-4F89-AE37-F59B885E66E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2952750"/>
+          <a:ext cx="15108758" cy="3724795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>554548</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>143427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA56D718-9FB9-4726-BAA4-4D04FCC06354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6667500"/>
+          <a:ext cx="15032548" cy="3953427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>583127</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2918DFB-7733-4842-AD1D-477ECD47089A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10668000"/>
+          <a:ext cx="15061127" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1382,18 +1825,18 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A15" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+  <threadedComment ref="A16" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
     <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -1443,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1458,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -1469,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -1481,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1505,7 +1948,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
@@ -1520,51 +1963,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
@@ -1615,605 +2063,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0E8E67-46EA-4C34-A353-154B393A1644}">
+  <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AI6"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="195" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:35" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="37">
+        <v>43605</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="114" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="37">
+        <v>43515</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="270.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="U11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="V11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="X11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Y11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Z11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AA11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AB11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AC11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AD11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AE11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AF11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AG11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AH11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AI11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="16" t="s">
+    </row>
+    <row r="12" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>401500844</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>401500844</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="D12" s="18">
+        <v>25509</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="F12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="18">
-        <v>25509</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H12" s="17">
+        <v>22372096</v>
+      </c>
+      <c r="I12" s="17">
+        <v>89986757</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="K12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="17">
-        <v>22372096</v>
-      </c>
-      <c r="I2" s="17">
-        <v>89986757</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="L12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="M12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="N12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O12" s="17"/>
+      <c r="P12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="Q12" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="21" t="s">
+      <c r="R12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="S12" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="T12" s="17"/>
+      <c r="U12" s="17">
+        <v>2019</v>
+      </c>
+      <c r="V12" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="W12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17">
-        <v>2019</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="X12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="Y12" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="Z12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="AA12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="AB12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AE12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="23" t="s">
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="23" t="s">
+    </row>
+    <row r="13" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>107090236</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>107090236</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D13" s="18">
+        <v>24770</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="18">
-        <v>24770</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17">
+        <v>83666946</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="L13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17">
-        <v>83666946</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="N13" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17">
+        <v>2015</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>204770946</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="18">
+        <v>26273</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="17">
+        <v>22393615</v>
+      </c>
+      <c r="I14" s="17">
+        <v>83624159</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="M14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="Q14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17">
+        <v>2016</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE14" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+    </row>
+    <row r="15" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>110770945</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="18">
+        <v>29460</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="17">
+        <v>25624243</v>
+      </c>
+      <c r="I15" s="17">
+        <v>88110706</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" s="26"/>
+      <c r="U15" s="17">
+        <v>2015</v>
+      </c>
+      <c r="V15" s="27"/>
+      <c r="W15" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>108450068</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="18">
+        <v>26685</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="17">
+        <v>22628427</v>
+      </c>
+      <c r="I16" s="17">
+        <v>83420020</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="O16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17">
-        <v>2015</v>
-      </c>
-      <c r="V3" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="X3" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>204770946</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="18">
-        <v>26273</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="17">
-        <v>22393615</v>
-      </c>
-      <c r="I4" s="17">
-        <v>83624159</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17">
-        <v>2016</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z4" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-    </row>
-    <row r="5" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>110770945</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="18">
-        <v>29460</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="17">
-        <v>25624243</v>
-      </c>
-      <c r="I5" s="17">
-        <v>88110706</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="R16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="S16" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="17">
-        <v>2015</v>
-      </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>108450068</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="18">
-        <v>26685</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="17">
-        <v>22628427</v>
-      </c>
-      <c r="I6" s="17">
-        <v>83420020</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="T16" s="17"/>
+      <c r="U16" s="17">
+        <v>2005</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="21" t="s">
+      <c r="X16" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17">
-        <v>2005</v>
-      </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29" t="s">
+      <c r="Y16" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="Z16" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="AA16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="21" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{045568F0-FAD3-4F03-A633-7BC017F07436}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{AB533A75-A9EC-429A-AD61-9BC933B93837}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{C0DC7E44-33B4-49C3-B2DF-F093F43E73D9}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{38F7EF01-1676-4FFA-98A9-C2DEB41D526A}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{A95C1EFC-08CB-4B34-A401-D84F2449C850}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{65762E4A-2161-4957-9DA6-2D42F420B895}"/>
+    <hyperlink ref="F15" r:id="rId7" xr:uid="{FB2578F1-C8AF-43FF-8D7A-C0F656B61C08}"/>
+    <hyperlink ref="G15" r:id="rId8" xr:uid="{E8412B2D-21FE-49D2-8E1B-8FC88178C7E8}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{D0427B78-B2A5-4A8A-BAFE-9771F1098378}"/>
+    <hyperlink ref="G16" r:id="rId10" xr:uid="{802F43DE-EA78-4CBA-96AE-1494B0F6ACB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId11"/>
@@ -2221,10 +3135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EC084F-F78E-4A98-B67C-45E7481369F0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
